--- a/0_input/4_merged_columns.xlsx
+++ b/0_input/4_merged_columns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>regularMarketPrice</t>
+          <t>priceHint</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>regularMarketTime</t>
+          <t>market</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>regularMarketChange</t>
+          <t>currency</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>regularMarketOpen</t>
+          <t>regularMarketChangePercent</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>regularMarketDayHigh</t>
+          <t>regularMarketPreviousClose</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>regularMarketDayLow</t>
+          <t>bid</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>regularMarketVolume</t>
+          <t>ask</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bookValue</t>
+          <t>messageBoardId</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>fiftyDayAverage</t>
+          <t>fullExchangeName</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>fiftyDayAverageChange</t>
+          <t>fiftyTwoWeekLowChangePercent</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>fiftyDayAverageChangePercent</t>
+          <t>fiftyTwoWeekRange</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>twoHundredDayAverage</t>
+          <t>fiftyTwoWeekHighChange</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>twoHundredDayAverageChange</t>
+          <t>fiftyTwoWeekHighChangePercent</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>twoHundredDayAverageChangePercent</t>
+          <t>fiftyTwoWeekHigh</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>marketCap</t>
+          <t>earningsTimestamp</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>priceToBook</t>
+          <t>earningsTimestampStart</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>sourceInterval</t>
+          <t>earningsTimestampEnd</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>exchangeTimezoneName</t>
+          <t>trailingAnnualDividendRate</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>exchangeTimezoneShortName</t>
+          <t>trailingPE</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>esgPopulated</t>
+          <t>trailingAnnualDividendYield</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tradeable</t>
+          <t>fiftyDayAverageChange</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>regularMarketDayRange</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>longName</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>shortName</t>
+          <t>financialCurrency</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>exchange</t>
+          <t>averageDailyVolume3Month</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>marketState</t>
+          <t>averageDailyVolume10Day</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>priceHint</t>
+          <t>fiftyTwoWeekLowChange</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>regularMarketChangePercent</t>
+          <t>fiftyTwoWeekLow</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>regularMarketDayRange</t>
+          <t>esgPopulated</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>regularMarketPreviousClose</t>
+          <t>tradeable</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bid</t>
+          <t>gmtOffSetMilliseconds</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>priceToBook</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>messageBoardId</t>
+          <t>sourceInterval</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>fullExchangeName</t>
+          <t>exchangeTimezoneName</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>longName</t>
+          <t>exchangeTimezoneShortName</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>financialCurrency</t>
+          <t>fiftyDayAverage</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>averageDailyVolume3Month</t>
+          <t>fiftyDayAverageChangePercent</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>averageDailyVolume10Day</t>
+          <t>twoHundredDayAverage</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekLowChange</t>
+          <t>twoHundredDayAverageChange</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekLowChangePercent</t>
+          <t>twoHundredDayAverageChangePercent</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekRange</t>
+          <t>marketCap</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekHighChange</t>
+          <t>epsTrailingTwelveMonths</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekHighChangePercent</t>
+          <t>exchange</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekLow</t>
+          <t>shortName</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>fiftyTwoWeekHigh</t>
+          <t>marketState</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>earningsTimestamp</t>
+          <t>bookValue</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>earningsTimestampStart</t>
+          <t>regularMarketPrice</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>exchangeDataDelayedBy</t>
+          <t>regularMarketTime</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>earningsTimestampEnd</t>
+          <t>regularMarketChange</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>trailingAnnualDividendRate</t>
+          <t>regularMarketOpen</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>trailingPE</t>
+          <t>regularMarketDayHigh</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>trailingAnnualDividendYield</t>
+          <t>regularMarketDayLow</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>epsTrailingTwelveMonths</t>
+          <t>regularMarketVolume</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>gmtOffSetMilliseconds</t>
+          <t>exchangeDataDelayedBy</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>epsForward</t>
+          <t>bidSize</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>bidSize</t>
+          <t>askSize</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>askSize</t>
+          <t>epsForward</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>dividendDate</t>
+          <t>preMarketChange</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>preMarketChange</t>
+          <t>preMarketChangePercent</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>preMarketChangePercent</t>
+          <t>preMarketTime</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>preMarketTime</t>
+          <t>preMarketPrice</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>preMarketPrice</t>
+          <t>dividendDate</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>firstTradeDateMilliseconds</t>
+          <t>prevName</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>displayName</t>
+          <t>nameChangeDate</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>averageAnalystRating</t>
+          <t>firstTradeDateMilliseconds</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>prevName</t>
+          <t>postMarketChangePercent</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>nameChangeDate</t>
+          <t>postMarketTime</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>postMarketChangePercent</t>
+          <t>postMarketPrice</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>postMarketTime</t>
+          <t>postMarketChange</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>postMarketPrice</t>
+          <t>displayName</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>postMarketChange</t>
+          <t>averageAnalystRating</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>totalRevenueTTM</t>
+          <t>5y Average Return</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>costOfRevenueTTM</t>
+          <t>Average for Category</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>totalCashFromOperatingActivitiesTTM</t>
+          <t>Category</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>capitalExpendituresTTM</t>
+          <t>Holdings Turnover</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>totalOperatingExpensesTTM</t>
+          <t>Last Cap Gain</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>revenue_last_year</t>
+          <t>Last Dividend</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>mean_historical_revenue</t>
+          <t>Morningstar Rating</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>mean_historical_costOfRevenue</t>
+          <t>Morningstar Risk Rating</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>mean_historical_capex</t>
+          <t>Sustainability Rating</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>mean_historical_propertyPlantEquipment</t>
+          <t>YTD Return</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>totalRevenueTTM</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Short%</t>
+          <t>costOfRevenueTTM</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>totalCashFromOperatingActivitiesTTM</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>capitalExpendituresTTM</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>marCap</t>
+          <t>totalOperatingExpensesTTM</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>OpMarg</t>
+          <t>revenue_last_year</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>%Ins</t>
+          <t>mean_historical_revenue</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>%QtrGrwth</t>
+          <t>mean_historical_costOfRevenue</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BVPS</t>
+          <t>mean_historical_capex</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Sales_absolute_increase</t>
+          <t>mean_historical_propertyPlantEquipment</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>%YoYGrwth</t>
+          <t>Date</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>maint_capex_ratio</t>
+          <t>Short%</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>growth_capex</t>
+          <t>Debt</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>capex_more_correct</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NAV/S</t>
+          <t>marCap</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B/S/p</t>
+          <t>OpMarg</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>OwnEa</t>
+          <t>%Ins</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>OwnEa/S</t>
+          <t>%QtrGrwth</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>OwnEa/S/p</t>
+          <t>BVPS</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>marg</t>
+          <t>Sales_absolute_increase</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>WC/S</t>
+          <t>%YoYGrwth</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>WC/S/p</t>
+          <t>maint_capex_ratio</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>WC/Debt</t>
+          <t>growth_capex</t>
         </is>
       </c>
     </row>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Eq/Debt</t>
+          <t>capex_more_correct</t>
         </is>
       </c>
     </row>
@@ -3253,6 +3253,106 @@
         <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
+        <is>
+          <t>NAV/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>B/S/p</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>OwnEa</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>OwnEa/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>OwnEa/S/p</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>marg</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>WC/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>WC/S/p</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>WC/Debt</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Eq/Debt</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
         <is>
           <t>Rev/S/p</t>
         </is>
